--- a/Icomp.xlsx
+++ b/Icomp.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drnip\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drnip\OneDrive\Documents\GitHub\Profile\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>studyid</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>n_non_event_ICC</t>
+  </si>
+  <si>
+    <t>year</t>
   </si>
 </sst>
 </file>
@@ -401,362 +404,405 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="31.33203125" customWidth="1"/>
+    <col min="2" max="2" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>16</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>19</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
+        <v>2017</v>
+      </c>
+      <c r="C2">
         <v>54</v>
       </c>
-      <c r="C2">
-        <f>D2-B2</f>
+      <c r="D2">
+        <f>E2-C2</f>
         <v>754</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>808</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>74</v>
       </c>
-      <c r="F2">
-        <f>G2-E2</f>
+      <c r="G2">
+        <f>H2-F2</f>
         <v>733</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>807</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
+        <v>2019</v>
+      </c>
+      <c r="C3">
         <v>16</v>
       </c>
-      <c r="C3">
-        <f t="shared" ref="C3:C14" si="0">D3-B3</f>
+      <c r="D3">
+        <f t="shared" ref="D3:D14" si="0">E3-C3</f>
         <v>89</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>105</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>23</v>
       </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F14" si="1">G3-E3</f>
+      <c r="G3">
+        <f t="shared" ref="G3:G14" si="1">H3-F3</f>
         <v>82</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
+        <v>2018</v>
+      </c>
+      <c r="C4">
         <v>7</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <f t="shared" si="0"/>
         <v>128</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>135</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>14</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
+        <v>2015</v>
+      </c>
+      <c r="C5">
         <v>2</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>50</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>5</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
+        <v>2016</v>
+      </c>
+      <c r="C6">
         <v>4</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>18</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>4</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7">
+        <v>2023</v>
+      </c>
+      <c r="C7">
         <v>2</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>47</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>4</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8">
+        <v>2011</v>
+      </c>
+      <c r="C8">
         <v>3</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>16</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>3</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9">
+        <v>2021</v>
+      </c>
+      <c r="C9">
         <v>4</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>30</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>3</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10">
+        <v>2023</v>
+      </c>
+      <c r="C10">
         <v>4</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>27</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>1</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11">
+        <v>2017</v>
+      </c>
+      <c r="C11">
         <v>2</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>59</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>0</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <f t="shared" si="1"/>
         <v>61</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12">
+        <v>2011</v>
+      </c>
+      <c r="C12">
         <v>0</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>19</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>1</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13">
+        <v>2018</v>
+      </c>
+      <c r="C13">
         <v>0</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>50</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>1</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="B14">
+        <v>2007</v>
+      </c>
+      <c r="C14">
         <v>0</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>30</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>1</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>35</v>
       </c>
     </row>
